--- a/modelos/laje_modelo.xlsx
+++ b/modelos/laje_modelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drives compartilhados\2024-1_Marcus_Nascimento_Pedro_Gomes\02 - Resultados\Modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wande\github\ingde-bridge\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910CD67F-B843-42D9-AAC4-33D3E370CA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBF4EB-11FE-4EFF-B0CC-9A1A5BA53BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B71949D-8AC5-4EFC-AFF5-5AF44F6E6641}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Danos</t>
   </si>
@@ -120,13 +120,16 @@
   </si>
   <si>
     <t xml:space="preserve">Manchas </t>
+  </si>
+  <si>
+    <t>2 a 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +167,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -215,20 +212,8 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,6 +223,18 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,439 +589,439 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825C39D5-D862-4354-A2B1-524457EAC154}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2</v>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
         <v>2</v>
       </c>
     </row>
